--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846701.502509072</v>
+        <v>842179.3202789209</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7422292.903432941</v>
+        <v>7422292.903432946</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>299.042523204665</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>78.88988900346685</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.7372692669303</v>
+        <v>58.73726926693028</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T12" t="n">
         <v>136.241471152512</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H13" t="n">
-        <v>38.91184599296614</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I13" t="n">
-        <v>72.37695545534142</v>
+        <v>72.3769554553414</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.104997571370177</v>
+        <v>7.104997571370163</v>
       </c>
       <c r="S13" t="n">
         <v>153.1383045355418</v>
@@ -1584,19 +1584,19 @@
         <v>237.1559102373387</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3347311118176</v>
+        <v>212.8499900390621</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3650750371733</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>210.1512354641813</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>101.1924139645303</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>31.50220097417949</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7167301225565</v>
@@ -1785,7 +1785,7 @@
         <v>134.5550226373062</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>235.7676976566376</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>349.15806762804</v>
+        <v>204.674021215459</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T18" t="n">
         <v>136.241471152512</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>73.36209998502798</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7167301225565</v>
       </c>
       <c r="H19" t="n">
-        <v>7.554717374755797</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.104997571370184</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S19" t="n">
         <v>153.1383045355418</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U19" t="n">
         <v>277.3347311118176</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3390573303334</v>
+        <v>370.9954709288539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>272.3044503593223</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>12.0895254098245</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1559102373387</v>
+        <v>215.627396034621</v>
       </c>
       <c r="U22" t="n">
         <v>277.3347311118176</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U23" t="n">
         <v>255.6148311530628</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>68.56458786922886</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.465861392523213</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T24" t="n">
         <v>136.241471152512</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>90.97222777358779</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.1383045355418</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1559102373387</v>
       </c>
       <c r="U25" t="n">
         <v>277.3347311118176</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>219.6653593787689</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>284.3885341879007</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>278.6609638909734</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>58.7372692669303</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6148311530628</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T27" t="n">
         <v>136.241471152512</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.281357713390236</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.012445112242217</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.7167301225565</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.1383045355418</v>
@@ -2772,7 +2772,7 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T29" t="n">
         <v>210.1512354641813</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>200.6370191915659</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>234.9657866925522</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T30" t="n">
         <v>136.241471152512</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.7167301225565</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.1383045355418</v>
+        <v>82.77379419244248</v>
       </c>
       <c r="T31" t="n">
         <v>237.1559102373387</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.2828078300602</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>355.3920785550681</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1512354641813</v>
+        <v>47.56911938590793</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T33" t="n">
         <v>136.241471152512</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.7899022159433</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1559102373387</v>
+        <v>215.627396034621</v>
       </c>
       <c r="U34" t="n">
         <v>277.3347311118176</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3271,10 +3271,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>44.26898532384051</v>
       </c>
       <c r="E35" t="n">
-        <v>392.6680520001486</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T36" t="n">
         <v>136.241471152512</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.95204405400333</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1559102373387</v>
+        <v>215.6273960346205</v>
       </c>
       <c r="U37" t="n">
         <v>277.3347311118176</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H38" t="n">
         <v>274.8515169420447</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T38" t="n">
         <v>210.1512354641813</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>22.21057271768775</v>
       </c>
       <c r="X38" t="n">
-        <v>80.79217330728871</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T39" t="n">
         <v>136.241471152512</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>50.76707565621376</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.104997571370184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.1383045355418</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1559102373387</v>
+        <v>72.34836450503768</v>
       </c>
       <c r="U40" t="n">
         <v>277.3347311118176</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>68.27428651278593</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>34.06955823075859</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T42" t="n">
         <v>136.241471152512</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5550226373062</v>
+        <v>104.2275339797919</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T43" t="n">
         <v>237.1559102373387</v>
@@ -3957,13 +3957,13 @@
         <v>277.3347311118176</v>
       </c>
       <c r="V43" t="n">
-        <v>36.71934453350804</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>8.265049348756037</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>297.2292778190209</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.0656490433021</v>
+        <v>61.06564904330209</v>
       </c>
       <c r="T45" t="n">
         <v>136.241471152512</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I46" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.104997571370184</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S46" t="n">
         <v>153.1383045355418</v>
@@ -4191,19 +4191,19 @@
         <v>237.1559102373387</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3347311118176</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.4486604410268</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>22.10073060959573</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>544.9673852354778</v>
+        <v>1620.221453257348</v>
       </c>
       <c r="C11" t="n">
-        <v>544.9673852354778</v>
+        <v>1193.320723270649</v>
       </c>
       <c r="D11" t="n">
-        <v>121.674764420478</v>
+        <v>770.0281024556489</v>
       </c>
       <c r="E11" t="n">
-        <v>121.674764420478</v>
+        <v>344.0511626035064</v>
       </c>
       <c r="F11" t="n">
-        <v>121.674764420478</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G11" t="n">
-        <v>121.674764420478</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H11" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I11" t="n">
-        <v>82.46363936387479</v>
+        <v>82.46363936387527</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7424336056672</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7352879792931</v>
+        <v>428.7352879792932</v>
       </c>
       <c r="L11" t="n">
-        <v>696.4871173961201</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M11" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N11" t="n">
         <v>1308.284447706123</v>
@@ -5065,28 +5065,28 @@
         <v>2012.404604961347</v>
       </c>
       <c r="R11" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S11" t="n">
-        <v>2040.069817548878</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.069817548878</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U11" t="n">
-        <v>1781.87301840437</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.87301840437</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W11" t="n">
-        <v>1781.87301840437</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X11" t="n">
-        <v>1370.153019572118</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.8157495270078</v>
+        <v>2040.069817548879</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H12" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I12" t="n">
-        <v>61.66083576940666</v>
+        <v>61.66083576940667</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1740587367883</v>
+        <v>428.6498350246927</v>
       </c>
       <c r="K12" t="n">
-        <v>284.3566619303506</v>
+        <v>573.832438218255</v>
       </c>
       <c r="L12" t="n">
-        <v>487.1000015078573</v>
+        <v>776.5757777957618</v>
       </c>
       <c r="M12" t="n">
-        <v>726.8374070872659</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N12" t="n">
-        <v>975.2613532302561</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O12" t="n">
         <v>1488.38578996188</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483.9259173275615</v>
+        <v>926.4231856058019</v>
       </c>
       <c r="C13" t="n">
-        <v>483.9259173275615</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="D13" t="n">
-        <v>320.6091444543322</v>
+        <v>754.4506224847179</v>
       </c>
       <c r="E13" t="n">
-        <v>154.4009386071858</v>
+        <v>588.2424166375714</v>
       </c>
       <c r="F13" t="n">
-        <v>154.4009386071858</v>
+        <v>416.3806424121318</v>
       </c>
       <c r="G13" t="n">
-        <v>154.4009386071858</v>
+        <v>251.010207944903</v>
       </c>
       <c r="H13" t="n">
         <v>115.0960436647958</v>
       </c>
       <c r="I13" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J13" t="n">
-        <v>82.9883677688116</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1829501660235</v>
+        <v>241.1046668142445</v>
       </c>
       <c r="L13" t="n">
-        <v>270.6640977326956</v>
+        <v>724.9747079720815</v>
       </c>
       <c r="M13" t="n">
-        <v>515.2563162148833</v>
+        <v>979.38601816609</v>
       </c>
       <c r="N13" t="n">
-        <v>1025.712181833544</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O13" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973771</v>
       </c>
       <c r="P13" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q13" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R13" t="n">
-        <v>2092.223627342373</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S13" t="n">
-        <v>1937.538471245866</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.987046763706</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.850954731567</v>
+        <v>1482.98705682526</v>
       </c>
       <c r="V13" t="n">
-        <v>1417.850954731567</v>
+        <v>1201.275589433289</v>
       </c>
       <c r="W13" t="n">
-        <v>1142.99855090408</v>
+        <v>926.4231856058019</v>
       </c>
       <c r="X13" t="n">
-        <v>900.4346543498851</v>
+        <v>926.4231856058019</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.0918860396272</v>
+        <v>926.4231856058019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738.0306800642431</v>
+        <v>894.0129196486193</v>
       </c>
       <c r="C14" t="n">
-        <v>738.0306800642431</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="D14" t="n">
-        <v>738.0306800642431</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="E14" t="n">
-        <v>312.0537402121007</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F14" t="n">
-        <v>312.0537402121007</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G14" t="n">
         <v>41.9880078513196</v>
@@ -5275,28 +5275,28 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I14" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387513</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056673</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792932</v>
       </c>
       <c r="L14" t="n">
-        <v>696.4871173961203</v>
+        <v>696.4871173961201</v>
       </c>
       <c r="M14" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N14" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O14" t="n">
         <v>1597.63824664654</v>
       </c>
       <c r="P14" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q14" t="n">
         <v>2012.404604961347</v>
@@ -5311,19 +5311,19 @@
         <v>1827.795842332534</v>
       </c>
       <c r="U14" t="n">
-        <v>1569.599043188026</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="V14" t="n">
-        <v>1569.599043188026</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="W14" t="n">
-        <v>1569.599043188026</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="X14" t="n">
-        <v>1157.879044355773</v>
+        <v>1416.075843500281</v>
       </c>
       <c r="Y14" t="n">
-        <v>1157.879044355773</v>
+        <v>1313.861283940149</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I15" t="n">
-        <v>85.11814161381849</v>
+        <v>61.66083576940666</v>
       </c>
       <c r="J15" t="n">
-        <v>162.6313645812002</v>
+        <v>428.6498350246932</v>
       </c>
       <c r="K15" t="n">
-        <v>307.8139677747624</v>
+        <v>573.8324382182554</v>
       </c>
       <c r="L15" t="n">
-        <v>510.5573073522691</v>
+        <v>776.5757777957621</v>
       </c>
       <c r="M15" t="n">
-        <v>750.2947129316776</v>
+        <v>1016.313183375171</v>
       </c>
       <c r="N15" t="n">
-        <v>998.7186590746678</v>
+        <v>1264.737129518161</v>
       </c>
       <c r="O15" t="n">
-        <v>1382.930289676975</v>
+        <v>1488.38578996188</v>
       </c>
       <c r="P15" t="n">
-        <v>1559.286433632724</v>
+        <v>1664.74193391763</v>
       </c>
       <c r="Q15" t="n">
-        <v>1669.063976078264</v>
+        <v>1774.51947636317</v>
       </c>
       <c r="R15" t="n">
         <v>1815.43175696209</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>547.0655747441634</v>
+        <v>917.8781842535916</v>
       </c>
       <c r="C16" t="n">
-        <v>375.0930116230794</v>
+        <v>745.9056211325076</v>
       </c>
       <c r="D16" t="n">
-        <v>375.0930116230794</v>
+        <v>582.5888482592783</v>
       </c>
       <c r="E16" t="n">
-        <v>375.0930116230794</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="F16" t="n">
-        <v>343.2726065986557</v>
+        <v>416.3806424121319</v>
       </c>
       <c r="G16" t="n">
-        <v>177.9021721314269</v>
+        <v>251.0102079449031</v>
       </c>
       <c r="H16" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I16" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J16" t="n">
-        <v>160.9100844170325</v>
+        <v>82.98836776881161</v>
       </c>
       <c r="K16" t="n">
-        <v>488.3872759282664</v>
+        <v>163.1829501660235</v>
       </c>
       <c r="L16" t="n">
-        <v>595.8684234949385</v>
+        <v>647.0529913238606</v>
       </c>
       <c r="M16" t="n">
-        <v>1115.470020655019</v>
+        <v>760.9062624538216</v>
       </c>
       <c r="N16" t="n">
-        <v>1227.892963431799</v>
+        <v>1177.085679211443</v>
       </c>
       <c r="O16" t="n">
         <v>1655.327910400464</v>
@@ -5472,16 +5472,16 @@
         <v>1572.536110828074</v>
       </c>
       <c r="V16" t="n">
-        <v>1290.824643436103</v>
+        <v>1572.536110828074</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.972239608616</v>
+        <v>1334.386921275915</v>
       </c>
       <c r="X16" t="n">
-        <v>773.4083430544214</v>
+        <v>1334.386921275915</v>
       </c>
       <c r="Y16" t="n">
-        <v>547.0655747441634</v>
+        <v>1108.044152965657</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1223.012548671516</v>
+        <v>248.7294434224904</v>
       </c>
       <c r="C17" t="n">
-        <v>1223.012548671516</v>
+        <v>248.7294434224904</v>
       </c>
       <c r="D17" t="n">
-        <v>1223.012548671516</v>
+        <v>248.7294434224904</v>
       </c>
       <c r="E17" t="n">
-        <v>797.0356088193736</v>
+        <v>248.7294434224904</v>
       </c>
       <c r="F17" t="n">
-        <v>444.3506920233736</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G17" t="n">
         <v>41.9880078513196</v>
@@ -5518,22 +5518,22 @@
         <v>217.7424336056674</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792938</v>
       </c>
       <c r="L17" t="n">
-        <v>696.4871173961202</v>
+        <v>696.4871173961205</v>
       </c>
       <c r="M17" t="n">
-        <v>999.5589014613561</v>
+        <v>999.558901461356</v>
       </c>
       <c r="N17" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O17" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P17" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q17" t="n">
         <v>2012.404604961347</v>
@@ -5545,22 +5545,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T17" t="n">
-        <v>2040.069817548879</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U17" t="n">
-        <v>2040.069817548879</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="V17" t="n">
-        <v>2040.069817548879</v>
+        <v>1470.306427458783</v>
       </c>
       <c r="W17" t="n">
-        <v>2040.069817548879</v>
+        <v>1073.91507775913</v>
       </c>
       <c r="X17" t="n">
-        <v>1628.349818716626</v>
+        <v>1073.91507775913</v>
       </c>
       <c r="Y17" t="n">
-        <v>1223.012548671516</v>
+        <v>668.5778077140204</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I18" t="n">
-        <v>85.11814161381849</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J18" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K18" t="n">
-        <v>573.8324382182554</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L18" t="n">
-        <v>776.5757777957621</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N18" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R18" t="n">
         <v>1815.43175696209</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.9318431298167</v>
+        <v>444.7783464897857</v>
       </c>
       <c r="C19" t="n">
-        <v>459.9592800087327</v>
+        <v>370.6752151917777</v>
       </c>
       <c r="D19" t="n">
-        <v>459.9592800087327</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="E19" t="n">
-        <v>459.9592800087327</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="F19" t="n">
-        <v>288.0975057832931</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G19" t="n">
-        <v>122.7270713160643</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I19" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J19" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K19" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L19" t="n">
-        <v>647.0529913238606</v>
+        <v>595.8684234949386</v>
       </c>
       <c r="M19" t="n">
-        <v>760.9062624538216</v>
+        <v>1044.332137895986</v>
       </c>
       <c r="N19" t="n">
-        <v>1271.362128072482</v>
+        <v>1554.788003514647</v>
       </c>
       <c r="O19" t="n">
-        <v>1503.954413022565</v>
+        <v>1655.327910400464</v>
       </c>
       <c r="P19" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q19" t="n">
         <v>2099.40039256598</v>
@@ -5703,22 +5703,22 @@
         <v>1937.538471245867</v>
       </c>
       <c r="T19" t="n">
-        <v>1937.538471245867</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U19" t="n">
-        <v>1657.402379213728</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V19" t="n">
-        <v>1375.690911821757</v>
+        <v>1136.139487339596</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.83850799427</v>
+        <v>861.2870835121093</v>
       </c>
       <c r="X19" t="n">
-        <v>858.2746114400746</v>
+        <v>861.2870835121093</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.9318431298167</v>
+        <v>634.9443152018514</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1294.544042825073</v>
+        <v>1267.832029442197</v>
       </c>
       <c r="C20" t="n">
-        <v>867.6433128383733</v>
+        <v>1267.832029442197</v>
       </c>
       <c r="D20" t="n">
-        <v>444.3506920233736</v>
+        <v>1267.832029442197</v>
       </c>
       <c r="E20" t="n">
-        <v>444.3506920233736</v>
+        <v>841.8550895900547</v>
       </c>
       <c r="F20" t="n">
-        <v>444.3506920233736</v>
+        <v>416.7309077794549</v>
       </c>
       <c r="G20" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H20" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I20" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387513</v>
       </c>
       <c r="J20" t="n">
-        <v>217.7424336056674</v>
+        <v>217.7424336056673</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792932</v>
       </c>
       <c r="L20" t="n">
-        <v>696.4871173961202</v>
+        <v>696.4871173961201</v>
       </c>
       <c r="M20" t="n">
-        <v>999.5589014613556</v>
+        <v>999.5589014613558</v>
       </c>
       <c r="N20" t="n">
         <v>1308.284447706122</v>
       </c>
       <c r="O20" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P20" t="n">
         <v>1838.988606965869</v>
       </c>
       <c r="Q20" t="n">
-        <v>2012.404604961346</v>
+        <v>2012.404604961347</v>
       </c>
       <c r="R20" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S20" t="n">
-        <v>2040.069817548878</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T20" t="n">
-        <v>1827.795842332533</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="U20" t="n">
-        <v>1569.599043188025</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="V20" t="n">
-        <v>1569.599043188025</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="W20" t="n">
-        <v>1294.544042825073</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="X20" t="n">
-        <v>1294.544042825073</v>
+        <v>1687.680393733727</v>
       </c>
       <c r="Y20" t="n">
-        <v>1294.544042825073</v>
+        <v>1687.680393733727</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.1476225790692</v>
       </c>
       <c r="G21" t="n">
-        <v>85.15130637965787</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H21" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I21" t="n">
-        <v>61.66083576940665</v>
+        <v>85.11814161381849</v>
       </c>
       <c r="J21" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397876</v>
       </c>
       <c r="K21" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333498</v>
       </c>
       <c r="L21" t="n">
-        <v>776.5757777957621</v>
+        <v>671.1202775108565</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.313183375171</v>
+        <v>910.857683090265</v>
       </c>
       <c r="N21" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O21" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R21" t="n">
         <v>1815.43175696209</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.3804186476556</v>
+        <v>385.8223451978432</v>
       </c>
       <c r="C22" t="n">
-        <v>220.4078555265716</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D22" t="n">
-        <v>220.4078555265716</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E22" t="n">
-        <v>54.19964967942514</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F22" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G22" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H22" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I22" t="n">
-        <v>41.98800785131958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J22" t="n">
         <v>160.9100844170325</v>
@@ -5916,46 +5916,46 @@
         <v>488.3872759282664</v>
       </c>
       <c r="L22" t="n">
-        <v>595.8684234949385</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M22" t="n">
-        <v>709.7216946248994</v>
+        <v>1086.110588216064</v>
       </c>
       <c r="N22" t="n">
-        <v>1025.712181833544</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O22" t="n">
-        <v>1503.954413022564</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P22" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q22" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R22" t="n">
-        <v>2092.223627342373</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S22" t="n">
-        <v>1937.538471245866</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.987046763706</v>
+        <v>1881.594942025959</v>
       </c>
       <c r="U22" t="n">
-        <v>1417.850954731567</v>
+        <v>1601.45884999382</v>
       </c>
       <c r="V22" t="n">
-        <v>1136.139487339595</v>
+        <v>1319.747382601849</v>
       </c>
       <c r="W22" t="n">
-        <v>861.2870835121084</v>
+        <v>1044.894978774362</v>
       </c>
       <c r="X22" t="n">
-        <v>618.7231869579135</v>
+        <v>802.3310822201668</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.3804186476556</v>
+        <v>575.9883139099088</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1292.767494648973</v>
+        <v>1170.716924405016</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.767494648973</v>
+        <v>1170.716924405016</v>
       </c>
       <c r="D23" t="n">
-        <v>869.4748738339733</v>
+        <v>1170.716924405016</v>
       </c>
       <c r="E23" t="n">
-        <v>869.4748738339733</v>
+        <v>744.7399845528737</v>
       </c>
       <c r="F23" t="n">
-        <v>444.3506920233736</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G23" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H23" t="n">
         <v>41.9880078513196</v>
@@ -5989,25 +5989,25 @@
         <v>82.46363936387547</v>
       </c>
       <c r="J23" t="n">
-        <v>217.7424336056677</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K23" t="n">
-        <v>428.7352879792936</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L23" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M23" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N23" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O23" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P23" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q23" t="n">
         <v>2012.404604961347</v>
@@ -6019,22 +6019,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T23" t="n">
-        <v>2040.069817548879</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U23" t="n">
-        <v>1781.873018404371</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="V23" t="n">
-        <v>1781.873018404371</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="W23" t="n">
-        <v>1712.615858940503</v>
+        <v>1173.207693488373</v>
       </c>
       <c r="X23" t="n">
-        <v>1712.615858940503</v>
+        <v>1170.716924405016</v>
       </c>
       <c r="Y23" t="n">
-        <v>1712.615858940503</v>
+        <v>1170.716924405016</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J24" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K24" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L24" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M24" t="n">
-        <v>726.8374070872658</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.439004247346</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O24" t="n">
-        <v>1470.087664691065</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P24" t="n">
-        <v>1646.443808646815</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q24" t="n">
-        <v>1756.221351092355</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R24" t="n">
         <v>1815.43175696209</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.765874417751</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="C25" t="n">
-        <v>269.7933112966671</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D25" t="n">
-        <v>269.7933112966671</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E25" t="n">
-        <v>269.7933112966671</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F25" t="n">
-        <v>269.7933112966671</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G25" t="n">
-        <v>177.9021721314269</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H25" t="n">
         <v>41.9880078513196</v>
@@ -6147,52 +6147,52 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J25" t="n">
-        <v>82.98836776881161</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K25" t="n">
-        <v>295.2353282302892</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L25" t="n">
-        <v>779.1053693881262</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M25" t="n">
-        <v>892.9586405180871</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N25" t="n">
-        <v>1403.414506136748</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O25" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P25" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q25" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R25" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S25" t="n">
-        <v>1937.538471245867</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T25" t="n">
-        <v>1937.538471245867</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U25" t="n">
-        <v>1657.402379213728</v>
+        <v>1425.027719955174</v>
       </c>
       <c r="V25" t="n">
-        <v>1375.690911821757</v>
+        <v>1143.316252563203</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.83850799427</v>
+        <v>868.4638487357156</v>
       </c>
       <c r="X25" t="n">
-        <v>858.2746114400746</v>
+        <v>625.8999521815207</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.9318431298167</v>
+        <v>404.0157507888248</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>752.5417743106635</v>
+        <v>1027.992253830967</v>
       </c>
       <c r="C26" t="n">
-        <v>752.5417743106635</v>
+        <v>601.0915238442672</v>
       </c>
       <c r="D26" t="n">
-        <v>329.2491534956638</v>
+        <v>601.0915238442672</v>
       </c>
       <c r="E26" t="n">
-        <v>329.2491534956638</v>
+        <v>601.0915238442672</v>
       </c>
       <c r="F26" t="n">
-        <v>41.9880078513196</v>
+        <v>601.0915238442672</v>
       </c>
       <c r="G26" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H26" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="I26" t="n">
-        <v>82.4636393638757</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J26" t="n">
-        <v>217.7424336056679</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K26" t="n">
-        <v>428.7352879792936</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L26" t="n">
-        <v>696.4871173961204</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M26" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N26" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O26" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P26" t="n">
         <v>1838.988606965869</v>
@@ -6256,22 +6256,22 @@
         <v>2040.069817548879</v>
       </c>
       <c r="T26" t="n">
-        <v>1827.795842332534</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U26" t="n">
-        <v>1569.599043188026</v>
+        <v>1781.873018404371</v>
       </c>
       <c r="V26" t="n">
-        <v>1569.599043188026</v>
+        <v>1424.38360353062</v>
       </c>
       <c r="W26" t="n">
-        <v>1569.599043188026</v>
+        <v>1027.992253830967</v>
       </c>
       <c r="X26" t="n">
-        <v>1157.879044355773</v>
+        <v>1027.992253830967</v>
       </c>
       <c r="Y26" t="n">
-        <v>752.5417743106635</v>
+        <v>1027.992253830967</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I27" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J27" t="n">
-        <v>148.7856434440217</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K27" t="n">
-        <v>293.9682466375839</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L27" t="n">
-        <v>496.7115862150906</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.313183375171</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N27" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O27" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R27" t="n">
         <v>1815.43175696209</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>672.7975853190314</v>
+        <v>209.3912151591971</v>
       </c>
       <c r="C28" t="n">
-        <v>672.7975853190314</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="D28" t="n">
-        <v>509.4808124458021</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="E28" t="n">
-        <v>343.2726065986557</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="F28" t="n">
-        <v>343.2726065986557</v>
+        <v>207.3584423185484</v>
       </c>
       <c r="G28" t="n">
-        <v>177.9021721314269</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H28" t="n">
         <v>41.9880078513196</v>
@@ -6384,52 +6384,52 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J28" t="n">
-        <v>82.98836776881161</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K28" t="n">
-        <v>287.5199250420503</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L28" t="n">
-        <v>771.3899661998873</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M28" t="n">
-        <v>1290.991563359967</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N28" t="n">
-        <v>1403.414506136748</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O28" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P28" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q28" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R28" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S28" t="n">
-        <v>1937.538471245867</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.987046763707</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U28" t="n">
-        <v>1417.850954731568</v>
+        <v>1425.027719955174</v>
       </c>
       <c r="V28" t="n">
-        <v>1417.850954731568</v>
+        <v>1143.316252563203</v>
       </c>
       <c r="W28" t="n">
-        <v>1142.998550904081</v>
+        <v>868.4638487357156</v>
       </c>
       <c r="X28" t="n">
-        <v>900.4346543498856</v>
+        <v>625.8999521815207</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.0918860396276</v>
+        <v>399.5571838712627</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.1121896619194</v>
+        <v>871.2514220100735</v>
       </c>
       <c r="C29" t="n">
-        <v>467.1121896619194</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="D29" t="n">
-        <v>467.1121896619194</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="E29" t="n">
-        <v>467.1121896619194</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="F29" t="n">
-        <v>41.9880078513196</v>
+        <v>444.3506920233736</v>
       </c>
       <c r="G29" t="n">
         <v>41.9880078513196</v>
@@ -6463,25 +6463,25 @@
         <v>82.46363936387547</v>
       </c>
       <c r="J29" t="n">
-        <v>217.7424336056677</v>
+        <v>217.7424336056674</v>
       </c>
       <c r="K29" t="n">
-        <v>428.7352879792936</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L29" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M29" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N29" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O29" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P29" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q29" t="n">
         <v>2012.404604961347</v>
@@ -6490,25 +6490,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S29" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.126417349635</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.126417349635</v>
+        <v>1625.132186583477</v>
       </c>
       <c r="V29" t="n">
-        <v>1529.637002475885</v>
+        <v>1267.642771709727</v>
       </c>
       <c r="W29" t="n">
-        <v>1529.637002475885</v>
+        <v>871.2514220100735</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.297823998559</v>
+        <v>871.2514220100735</v>
       </c>
       <c r="Y29" t="n">
-        <v>886.9605539534494</v>
+        <v>871.2514220100735</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I30" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K30" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L30" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M30" t="n">
-        <v>726.8374070872658</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N30" t="n">
-        <v>975.261353230256</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O30" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R30" t="n">
         <v>1815.43175696209</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>515.2451697197397</v>
+        <v>280.4664781320246</v>
       </c>
       <c r="C31" t="n">
-        <v>343.2726065986557</v>
+        <v>280.4664781320246</v>
       </c>
       <c r="D31" t="n">
-        <v>343.2726065986557</v>
+        <v>280.4664781320246</v>
       </c>
       <c r="E31" t="n">
-        <v>343.2726065986557</v>
+        <v>280.4664781320246</v>
       </c>
       <c r="F31" t="n">
-        <v>343.2726065986557</v>
+        <v>280.4664781320246</v>
       </c>
       <c r="G31" t="n">
-        <v>177.9021721314269</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="H31" t="n">
-        <v>41.9880078513196</v>
+        <v>115.0960436647958</v>
       </c>
       <c r="I31" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J31" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K31" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L31" t="n">
-        <v>647.0529913238606</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M31" t="n">
-        <v>828.0125207881918</v>
+        <v>1205.714845091395</v>
       </c>
       <c r="N31" t="n">
-        <v>1338.468386406852</v>
+        <v>1716.170710710056</v>
       </c>
       <c r="O31" t="n">
         <v>1816.710617595873</v>
@@ -6645,28 +6645,28 @@
         <v>2099.40039256598</v>
       </c>
       <c r="R31" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S31" t="n">
-        <v>1937.538471245867</v>
+        <v>2015.790499442301</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.987046763707</v>
+        <v>1776.23907496014</v>
       </c>
       <c r="U31" t="n">
-        <v>1417.850954731568</v>
+        <v>1496.102982928001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.139487339596</v>
+        <v>1214.39151553603</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.139487339596</v>
+        <v>939.5391117085431</v>
       </c>
       <c r="X31" t="n">
-        <v>893.5755907854015</v>
+        <v>696.9752151543482</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.4111384318053</v>
+        <v>470.6324468440902</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>400.9699053816914</v>
+        <v>1572.171837716027</v>
       </c>
       <c r="C32" t="n">
-        <v>400.9699053816914</v>
+        <v>1145.271107729327</v>
       </c>
       <c r="D32" t="n">
-        <v>400.9699053816914</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="E32" t="n">
-        <v>41.9880078513196</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="F32" t="n">
-        <v>41.9880078513196</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="G32" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H32" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="I32" t="n">
-        <v>82.46363936387547</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J32" t="n">
-        <v>217.7424336056677</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K32" t="n">
-        <v>428.7352879792936</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L32" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M32" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N32" t="n">
         <v>1308.284447706123</v>
@@ -6718,7 +6718,7 @@
         <v>1597.638246646539</v>
       </c>
       <c r="P32" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q32" t="n">
         <v>2012.404604961347</v>
@@ -6727,25 +6727,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S32" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.126417349635</v>
+        <v>1992.020202007557</v>
       </c>
       <c r="U32" t="n">
-        <v>1628.929618205127</v>
+        <v>1992.020202007557</v>
       </c>
       <c r="V32" t="n">
-        <v>1628.929618205127</v>
+        <v>1992.020202007557</v>
       </c>
       <c r="W32" t="n">
-        <v>1232.538268505474</v>
+        <v>1992.020202007557</v>
       </c>
       <c r="X32" t="n">
-        <v>820.8182696732215</v>
+        <v>1992.020202007557</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.8182696732215</v>
+        <v>1992.020202007557</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I33" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K33" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L33" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M33" t="n">
-        <v>726.8374070872658</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N33" t="n">
-        <v>975.261353230256</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O33" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R33" t="n">
         <v>1815.43175696209</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.3282523574642</v>
+        <v>385.8223451978432</v>
       </c>
       <c r="C34" t="n">
-        <v>452.3282523574642</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D34" t="n">
-        <v>452.3282523574642</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E34" t="n">
-        <v>452.3282523574642</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F34" t="n">
-        <v>280.4664781320246</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H34" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I34" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="J34" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K34" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L34" t="n">
-        <v>393.6876418966842</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M34" t="n">
-        <v>913.2892390567642</v>
+        <v>1491.858914246184</v>
       </c>
       <c r="N34" t="n">
-        <v>1025.712181833545</v>
+        <v>1867.544208087954</v>
       </c>
       <c r="O34" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P34" t="n">
-        <v>1899.642306432964</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q34" t="n">
         <v>2099.40039256598</v>
       </c>
       <c r="R34" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S34" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.987046763707</v>
+        <v>1881.594942025959</v>
       </c>
       <c r="U34" t="n">
-        <v>1417.850954731568</v>
+        <v>1601.45884999382</v>
       </c>
       <c r="V34" t="n">
-        <v>1136.139487339596</v>
+        <v>1319.747382601849</v>
       </c>
       <c r="W34" t="n">
-        <v>861.2870835121093</v>
+        <v>1044.894978774362</v>
       </c>
       <c r="X34" t="n">
-        <v>861.2870835121093</v>
+        <v>802.3310822201668</v>
       </c>
       <c r="Y34" t="n">
-        <v>634.9443152018514</v>
+        <v>575.9883139099088</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>865.5231337977656</v>
+        <v>1217.209619372874</v>
       </c>
       <c r="C35" t="n">
-        <v>438.6224038110657</v>
+        <v>790.3088893861743</v>
       </c>
       <c r="D35" t="n">
-        <v>438.6224038110657</v>
+        <v>745.5927425944162</v>
       </c>
       <c r="E35" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="F35" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="G35" t="n">
-        <v>41.9880078513196</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H35" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I35" t="n">
         <v>82.46363936387525</v>
@@ -6940,49 +6940,49 @@
         <v>217.7424336056674</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7352879792933</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L35" t="n">
-        <v>696.4871173961202</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M35" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613557</v>
       </c>
       <c r="N35" t="n">
-        <v>1308.284447706123</v>
+        <v>1308.284447706122</v>
       </c>
       <c r="O35" t="n">
-        <v>1597.63824664654</v>
+        <v>1597.638246646539</v>
       </c>
       <c r="P35" t="n">
-        <v>1838.98860696587</v>
+        <v>1838.988606965869</v>
       </c>
       <c r="Q35" t="n">
         <v>2012.404604961347</v>
       </c>
       <c r="R35" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S35" t="n">
-        <v>2040.069817548879</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.069817548879</v>
+        <v>1887.126417349635</v>
       </c>
       <c r="U35" t="n">
-        <v>2040.069817548879</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="V35" t="n">
-        <v>1682.580402675128</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.580402675128</v>
+        <v>1628.929618205127</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.860403842875</v>
+        <v>1217.209619372874</v>
       </c>
       <c r="Y35" t="n">
-        <v>865.5231337977656</v>
+        <v>1217.209619372874</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H36" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I36" t="n">
         <v>85.11814161381849</v>
       </c>
       <c r="J36" t="n">
-        <v>162.6313645812002</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K36" t="n">
-        <v>307.8139677747624</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L36" t="n">
-        <v>510.5573073522691</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M36" t="n">
-        <v>750.2947129316776</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N36" t="n">
-        <v>1264.737129518161</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.38578996188</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R36" t="n">
         <v>1815.43175696209</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.2773438456329</v>
+        <v>385.8223451978432</v>
       </c>
       <c r="C37" t="n">
-        <v>205.3047807245489</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="D37" t="n">
-        <v>41.9880078513196</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="E37" t="n">
-        <v>41.9880078513196</v>
+        <v>213.8497820767592</v>
       </c>
       <c r="F37" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="G37" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="H37" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="I37" t="n">
-        <v>41.9880078513196</v>
+        <v>41.98800785131959</v>
       </c>
       <c r="J37" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K37" t="n">
-        <v>163.1829501660235</v>
+        <v>241.1046668142444</v>
       </c>
       <c r="L37" t="n">
-        <v>270.6640977326956</v>
+        <v>724.9747079720814</v>
       </c>
       <c r="M37" t="n">
-        <v>666.6298135927827</v>
+        <v>1244.576305132161</v>
       </c>
       <c r="N37" t="n">
-        <v>1177.085679211443</v>
+        <v>1755.032170750822</v>
       </c>
       <c r="O37" t="n">
-        <v>1655.327910400464</v>
+        <v>1855.57207763664</v>
       </c>
       <c r="P37" t="n">
-        <v>2051.015803810863</v>
+        <v>1938.503766473731</v>
       </c>
       <c r="Q37" t="n">
-        <v>2099.40039256598</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="R37" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="S37" t="n">
-        <v>1937.538471245867</v>
+        <v>2099.400392565979</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.987046763707</v>
+        <v>1881.594942025959</v>
       </c>
       <c r="U37" t="n">
-        <v>1417.850954731568</v>
+        <v>1601.45884999382</v>
       </c>
       <c r="V37" t="n">
-        <v>1136.139487339596</v>
+        <v>1319.747382601849</v>
       </c>
       <c r="W37" t="n">
-        <v>861.2870835121093</v>
+        <v>1044.894978774362</v>
       </c>
       <c r="X37" t="n">
-        <v>618.7231869579144</v>
+        <v>802.3310822201668</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.3804186476565</v>
+        <v>575.9883139099088</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>745.5927425944163</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="C38" t="n">
-        <v>745.5927425944163</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="D38" t="n">
-        <v>745.5927425944163</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="E38" t="n">
-        <v>319.6158027422739</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="F38" t="n">
-        <v>319.6158027422739</v>
+        <v>721.9784869143278</v>
       </c>
       <c r="G38" t="n">
-        <v>319.6158027422739</v>
+        <v>319.6158027422738</v>
       </c>
       <c r="H38" t="n">
         <v>41.9880078513196</v>
       </c>
       <c r="I38" t="n">
-        <v>82.4636393638757</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J38" t="n">
-        <v>217.7424336056677</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7352879792932</v>
+        <v>428.7352879792934</v>
       </c>
       <c r="L38" t="n">
-        <v>696.4871173961202</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M38" t="n">
-        <v>999.5589014613558</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N38" t="n">
-        <v>1308.284447706122</v>
+        <v>1308.284447706123</v>
       </c>
       <c r="O38" t="n">
         <v>1597.638246646539</v>
@@ -7201,25 +7201,25 @@
         <v>2099.40039256598</v>
       </c>
       <c r="S38" t="n">
-        <v>2099.40039256598</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.126417349635</v>
+        <v>1827.795842332534</v>
       </c>
       <c r="U38" t="n">
-        <v>1628.929618205127</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="V38" t="n">
-        <v>1628.929618205127</v>
+        <v>1569.599043188026</v>
       </c>
       <c r="W38" t="n">
-        <v>1232.538268505474</v>
+        <v>1547.164121250968</v>
       </c>
       <c r="X38" t="n">
-        <v>1150.930012639526</v>
+        <v>1547.164121250968</v>
       </c>
       <c r="Y38" t="n">
-        <v>745.5927425944163</v>
+        <v>1141.826851205858</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>41.9880078513196</v>
       </c>
       <c r="I39" t="n">
-        <v>61.66083576940666</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1740587367883</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K39" t="n">
-        <v>284.3566619303506</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L39" t="n">
-        <v>487.1000015078573</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M39" t="n">
-        <v>726.8374070872658</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N39" t="n">
-        <v>975.261353230256</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.910013673975</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.74193391763</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R39" t="n">
         <v>1815.43175696209</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>428.5572182458488</v>
+        <v>844.7701484401155</v>
       </c>
       <c r="C40" t="n">
-        <v>256.5846551247648</v>
+        <v>672.7975853190314</v>
       </c>
       <c r="D40" t="n">
-        <v>93.26788225153553</v>
+        <v>509.4808124458021</v>
       </c>
       <c r="E40" t="n">
-        <v>93.26788225153553</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="F40" t="n">
-        <v>41.9880078513196</v>
+        <v>343.2726065986557</v>
       </c>
       <c r="G40" t="n">
-        <v>41.9880078513196</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H40" t="n">
         <v>41.9880078513196</v>
@@ -7332,22 +7332,22 @@
         <v>41.9880078513196</v>
       </c>
       <c r="J40" t="n">
-        <v>82.98836776881161</v>
+        <v>160.9100844170325</v>
       </c>
       <c r="K40" t="n">
-        <v>163.1829501660235</v>
+        <v>488.3872759282665</v>
       </c>
       <c r="L40" t="n">
-        <v>270.6640977326956</v>
+        <v>972.2573170861035</v>
       </c>
       <c r="M40" t="n">
-        <v>666.6298135927827</v>
+        <v>1491.858914246184</v>
       </c>
       <c r="N40" t="n">
-        <v>1177.085679211443</v>
+        <v>1604.281857022964</v>
       </c>
       <c r="O40" t="n">
-        <v>1655.327910400464</v>
+        <v>1704.821763908781</v>
       </c>
       <c r="P40" t="n">
         <v>2051.015803810863</v>
@@ -7356,28 +7356,28 @@
         <v>2099.40039256598</v>
       </c>
       <c r="R40" t="n">
-        <v>2092.223627342374</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S40" t="n">
-        <v>1937.538471245867</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.987046763707</v>
+        <v>1871.636080403778</v>
       </c>
       <c r="U40" t="n">
-        <v>1417.850954731568</v>
+        <v>1591.499988371639</v>
       </c>
       <c r="V40" t="n">
-        <v>1136.139487339596</v>
+        <v>1309.788520979668</v>
       </c>
       <c r="W40" t="n">
-        <v>861.2870835121093</v>
+        <v>1034.936117152181</v>
       </c>
       <c r="X40" t="n">
-        <v>618.7231869579144</v>
+        <v>1034.936117152181</v>
       </c>
       <c r="Y40" t="n">
-        <v>618.7231869579144</v>
+        <v>1034.936117152181</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.8723493277645</v>
+        <v>891.2575685184618</v>
       </c>
       <c r="C41" t="n">
-        <v>811.8723493277645</v>
+        <v>891.2575685184618</v>
       </c>
       <c r="D41" t="n">
-        <v>388.5797285127647</v>
+        <v>467.964947703462</v>
       </c>
       <c r="E41" t="n">
-        <v>388.5797285127647</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="F41" t="n">
-        <v>319.6158027422739</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G41" t="n">
-        <v>319.6158027422739</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H41" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I41" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387536</v>
       </c>
       <c r="J41" t="n">
-        <v>217.742433605667</v>
+        <v>217.7424336056675</v>
       </c>
       <c r="K41" t="n">
         <v>428.7352879792934</v>
       </c>
       <c r="L41" t="n">
-        <v>696.4871173961205</v>
+        <v>696.4871173961204</v>
       </c>
       <c r="M41" t="n">
-        <v>999.5589014613561</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N41" t="n">
         <v>1308.284447706123</v>
@@ -7435,28 +7435,28 @@
         <v>2012.404604961347</v>
       </c>
       <c r="R41" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S41" t="n">
-        <v>2099.400392565979</v>
+        <v>2064.986697383395</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.126417349635</v>
+        <v>2064.986697383395</v>
       </c>
       <c r="U41" t="n">
-        <v>1628.929618205127</v>
+        <v>2064.986697383395</v>
       </c>
       <c r="V41" t="n">
-        <v>1628.929618205127</v>
+        <v>1707.497282509645</v>
       </c>
       <c r="W41" t="n">
-        <v>1628.929618205127</v>
+        <v>1311.105932809992</v>
       </c>
       <c r="X41" t="n">
-        <v>1217.209619372874</v>
+        <v>1311.105932809992</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.8723493277645</v>
+        <v>1311.105932809992</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.15130637965788</v>
       </c>
       <c r="H42" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I42" t="n">
-        <v>61.66083576940665</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J42" t="n">
-        <v>139.1740587367883</v>
+        <v>162.6313645812002</v>
       </c>
       <c r="K42" t="n">
-        <v>284.3566619303506</v>
+        <v>307.8139677747625</v>
       </c>
       <c r="L42" t="n">
-        <v>487.1000015078573</v>
+        <v>510.5573073522693</v>
       </c>
       <c r="M42" t="n">
-        <v>726.8374070872658</v>
+        <v>750.2947129316779</v>
       </c>
       <c r="N42" t="n">
-        <v>975.261353230256</v>
+        <v>998.7186590746682</v>
       </c>
       <c r="O42" t="n">
-        <v>1198.910013673975</v>
+        <v>1222.367319518387</v>
       </c>
       <c r="P42" t="n">
-        <v>1375.266157629725</v>
+        <v>1398.723463474137</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.51947636317</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R42" t="n">
         <v>1815.43175696209</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.2614881983262</v>
+        <v>491.1026825511682</v>
       </c>
       <c r="C43" t="n">
-        <v>679.2889250772422</v>
+        <v>319.1301194300843</v>
       </c>
       <c r="D43" t="n">
-        <v>515.9721522040129</v>
+        <v>319.1301194300843</v>
       </c>
       <c r="E43" t="n">
-        <v>349.7639463568664</v>
+        <v>319.1301194300843</v>
       </c>
       <c r="F43" t="n">
-        <v>177.9021721314269</v>
+        <v>147.2683452046447</v>
       </c>
       <c r="G43" t="n">
-        <v>177.9021721314269</v>
+        <v>147.2683452046447</v>
       </c>
       <c r="H43" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I43" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J43" t="n">
         <v>160.9100844170325</v>
       </c>
       <c r="K43" t="n">
-        <v>488.3872759282664</v>
+        <v>381.6627058782925</v>
       </c>
       <c r="L43" t="n">
-        <v>595.8684234949385</v>
+        <v>865.5327470361295</v>
       </c>
       <c r="M43" t="n">
-        <v>709.7216946248994</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N43" t="n">
-        <v>1220.17756024356</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O43" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P43" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q43" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R43" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S43" t="n">
-        <v>2099.400392565979</v>
+        <v>1944.715236469473</v>
       </c>
       <c r="T43" t="n">
-        <v>1859.848968083819</v>
+        <v>1705.163811987313</v>
       </c>
       <c r="U43" t="n">
-        <v>1579.71287605168</v>
+        <v>1425.027719955174</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.622629048137</v>
+        <v>1425.027719955174</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.77022522065</v>
+        <v>1150.175316127687</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.77022522065</v>
+        <v>907.6114195734918</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.427456910392</v>
+        <v>681.2686512632339</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.8234085296865</v>
+        <v>1620.221453257348</v>
       </c>
       <c r="C44" t="n">
-        <v>869.4748738339733</v>
+        <v>1193.320723270649</v>
       </c>
       <c r="D44" t="n">
-        <v>869.4748738339733</v>
+        <v>893.0891295140618</v>
       </c>
       <c r="E44" t="n">
-        <v>869.4748738339733</v>
+        <v>467.1121896619194</v>
       </c>
       <c r="F44" t="n">
-        <v>444.3506920233736</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="G44" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="H44" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I44" t="n">
-        <v>82.46363936387525</v>
+        <v>82.46363936387547</v>
       </c>
       <c r="J44" t="n">
         <v>217.7424336056674</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7352879792938</v>
+        <v>428.7352879792933</v>
       </c>
       <c r="L44" t="n">
-        <v>696.4871173961208</v>
+        <v>696.4871173961203</v>
       </c>
       <c r="M44" t="n">
-        <v>999.5589014613563</v>
+        <v>999.5589014613564</v>
       </c>
       <c r="N44" t="n">
         <v>1308.284447706123</v>
       </c>
       <c r="O44" t="n">
-        <v>1597.638246646539</v>
+        <v>1597.63824664654</v>
       </c>
       <c r="P44" t="n">
         <v>1838.988606965869</v>
@@ -7672,28 +7672,28 @@
         <v>2012.404604961347</v>
       </c>
       <c r="R44" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="S44" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="T44" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="U44" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="V44" t="n">
-        <v>2099.400392565979</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="W44" t="n">
-        <v>1703.009042866326</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="X44" t="n">
-        <v>1703.009042866326</v>
+        <v>2040.069817548879</v>
       </c>
       <c r="Y44" t="n">
-        <v>1297.671772821217</v>
+        <v>2040.069817548879</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>881.8098841943278</v>
+        <v>597.841248590438</v>
       </c>
       <c r="C45" t="n">
-        <v>764.3039807118325</v>
+        <v>480.3353451079428</v>
       </c>
       <c r="D45" t="n">
-        <v>660.4640222271175</v>
+        <v>376.4953866232278</v>
       </c>
       <c r="E45" t="n">
-        <v>555.7620885000548</v>
+        <v>271.793452896165</v>
       </c>
       <c r="F45" t="n">
-        <v>462.116258182959</v>
+        <v>178.1476225790692</v>
       </c>
       <c r="G45" t="n">
-        <v>369.1199419835477</v>
+        <v>85.15130637965788</v>
       </c>
       <c r="H45" t="n">
-        <v>325.9566434552094</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I45" t="n">
-        <v>345.6294713732964</v>
+        <v>85.11814161381852</v>
       </c>
       <c r="J45" t="n">
-        <v>423.1426943406781</v>
+        <v>323.1943347397873</v>
       </c>
       <c r="K45" t="n">
-        <v>568.3252975342403</v>
+        <v>468.3769379333496</v>
       </c>
       <c r="L45" t="n">
-        <v>771.068637111747</v>
+        <v>671.1202775108563</v>
       </c>
       <c r="M45" t="n">
-        <v>1010.806042691156</v>
+        <v>910.8576830902649</v>
       </c>
       <c r="N45" t="n">
-        <v>1259.229988834146</v>
+        <v>1159.281629233255</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.35442556577</v>
+        <v>1382.930289676975</v>
       </c>
       <c r="P45" t="n">
-        <v>1948.71056952152</v>
+        <v>1559.286433632724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.48811196706</v>
+        <v>1669.063976078264</v>
       </c>
       <c r="R45" t="n">
-        <v>2099.400392565979</v>
+        <v>1815.43175696209</v>
       </c>
       <c r="S45" t="n">
-        <v>2037.717918784866</v>
+        <v>1753.749283180976</v>
       </c>
       <c r="T45" t="n">
-        <v>1900.100271156066</v>
+        <v>1616.131635552176</v>
       </c>
       <c r="U45" t="n">
-        <v>1715.401644521952</v>
+        <v>1431.433008918062</v>
       </c>
       <c r="V45" t="n">
-        <v>1510.428505661218</v>
+        <v>1226.459870057328</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.907128494435</v>
+        <v>1029.938492890545</v>
       </c>
       <c r="X45" t="n">
-        <v>1150.429782261098</v>
+        <v>866.4611466572084</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.736893614391</v>
+        <v>726.7682580105007</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.9056211325076</v>
+        <v>687.9447153250969</v>
       </c>
       <c r="C46" t="n">
-        <v>745.9056211325076</v>
+        <v>515.9721522040129</v>
       </c>
       <c r="D46" t="n">
-        <v>582.5888482592783</v>
+        <v>515.9721522040129</v>
       </c>
       <c r="E46" t="n">
-        <v>416.3806424121318</v>
+        <v>349.7639463568664</v>
       </c>
       <c r="F46" t="n">
-        <v>416.3806424121318</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="G46" t="n">
-        <v>251.010207944903</v>
+        <v>177.9021721314269</v>
       </c>
       <c r="H46" t="n">
-        <v>115.0960436647958</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="I46" t="n">
-        <v>41.98800785131959</v>
+        <v>41.9880078513196</v>
       </c>
       <c r="J46" t="n">
-        <v>82.9883677688116</v>
+        <v>82.98836776881163</v>
       </c>
       <c r="K46" t="n">
-        <v>315.5659267689658</v>
+        <v>163.1829501660236</v>
       </c>
       <c r="L46" t="n">
-        <v>799.4359679268028</v>
+        <v>459.7844210060105</v>
       </c>
       <c r="M46" t="n">
-        <v>913.2892390567638</v>
+        <v>979.3860181660905</v>
       </c>
       <c r="N46" t="n">
-        <v>1025.712181833544</v>
+        <v>1489.841883784751</v>
       </c>
       <c r="O46" t="n">
-        <v>1503.954413022565</v>
+        <v>1968.084114973772</v>
       </c>
       <c r="P46" t="n">
-        <v>1899.642306432963</v>
+        <v>2051.015803810863</v>
       </c>
       <c r="Q46" t="n">
-        <v>2099.400392565979</v>
+        <v>2099.40039256598</v>
       </c>
       <c r="R46" t="n">
-        <v>2092.223627342373</v>
+        <v>2092.223627342374</v>
       </c>
       <c r="S46" t="n">
-        <v>1937.538471245866</v>
+        <v>1937.538471245867</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.987046763706</v>
+        <v>1697.987046763707</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.987046763706</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.275579371735</v>
+        <v>1417.850954731568</v>
       </c>
       <c r="W46" t="n">
-        <v>1214.81228599696</v>
+        <v>1142.998550904081</v>
       </c>
       <c r="X46" t="n">
-        <v>972.2483894427655</v>
+        <v>900.4346543498856</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.9056211325076</v>
+        <v>878.1106840371626</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>292.3997740281862</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>132.059542780027</v>
+        <v>141.9778172364117</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>292.3997740281868</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>162.1848183420076</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>409.8467939698173</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>306.8247211927691</v>
       </c>
       <c r="O16" t="n">
-        <v>330.1970101846946</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K18" t="n">
-        <v>268.705525700498</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>337.990346738471</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>133.3862404689553</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>162.1848183420075</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>292.3997740281867</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>205.623782254408</v>
+        <v>294.250861405966</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>273.9168192091817</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>18.4829548190052</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>133.3862404689552</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0306295690048</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>9.708671421447875</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.6911026067389</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>125.5929039151786</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0306295690048</v>
       </c>
       <c r="M28" t="n">
         <v>409.8467939698173</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>292.3997740281868</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>67.78409932764669</v>
+        <v>120.8123806821519</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.3997740281868</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>124.2662062262511</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>409.8467939698173</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>265.9215667323134</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>268.705525700498</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>284.9620653839659</v>
+        <v>409.8467939698172</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>113.6485225627592</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>292.3997740281868</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>284.9620653839659</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>265.9215667323133</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.3997740281868</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>141.9778172364121</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>185.0878241345328</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>162.1848183420072</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>292.399774028187</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>153.9221985888306</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>191.0306295690048</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>409.8467939698173</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>121.8304167878288</v>
       </c>
       <c r="G11" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H11" t="n">
-        <v>195.9616279385779</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>210.1512354641813</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>95.64317664434006</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>64.48474107275555</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>130.9739822931602</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H14" t="n">
         <v>274.8515169420447</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>300.0914833801282</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>138.6409555090057</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.33618213257449</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23740,13 +23740,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>71.71487236445375</v>
+        <v>216.1989187770347</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H17" t="n">
         <v>274.8515169420447</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6148311530628</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>96.89073750484516</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.0003052625504</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>27.34358640147951</v>
       </c>
       <c r="H20" t="n">
         <v>274.8515169420447</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>120.1229858433342</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>158.0536310733607</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7167301225565</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.104997571370184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>21.52851420271773</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>323.8628483334277</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>405.136937451407</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72.74450234896871</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I25" t="n">
         <v>72.37695545534142</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1559102373387</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.413981248386449</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>136.484405804593</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3390573303334</v>
+        <v>119.6780934393601</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>186.9829513115548</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>168.2403923776309</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I28" t="n">
         <v>72.37695545534142</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,10 +24691,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.8515169420447</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6148311530628</v>
+        <v>54.97781196149691</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>172.637012151378</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5550226373062</v>
       </c>
       <c r="I31" t="n">
-        <v>72.37695545534142</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>70.36451034309935</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.79653279709518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>66.3250918985529</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>162.5821160782733</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.474406809001664</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H34" t="n">
         <v>134.5550226373062</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>21.52851420271773</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>374.7907092830092</v>
       </c>
       <c r="E35" t="n">
-        <v>29.04911845347243</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>398.3390573303334</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8515169420447</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.7372692669303</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1512354641813</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6148311530628</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.3122649709417</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7167301225565</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1383045355418</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>21.52851420271818</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,13 +25399,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3390573303334</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>370.2168634849688</v>
       </c>
       <c r="X38" t="n">
-        <v>326.8106255366415</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>119.3760808269714</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7167301225565</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5550226373062</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>72.37695545534142</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>164.807545732301</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>352.5986534797078</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3390573303334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.8515169420447</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.7372692669303</v>
+        <v>24.66771103617171</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1512354641813</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6148311530628</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>163.7167301225565</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>30.32748865751434</v>
       </c>
       <c r="I43" t="n">
         <v>72.37695545534142</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.104997571370184</v>
+        <v>7.10499757137017</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1383045355418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>242.1750081845433</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>414.3666733380768</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>121.8304167878288</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3390573303334</v>
       </c>
       <c r="H44" t="n">
         <v>274.8515169420447</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.7372692669303</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1512354641813</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7167301225565</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.37695545534142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3347311118176</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>72.65521934818526</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>201.9786100175596</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363434.3054872631</v>
+        <v>363434.3054872632</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363434.3054872632</v>
+        <v>363434.3054872631</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363434.3054872631</v>
+        <v>363434.3054872632</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363434.3054872631</v>
+        <v>363434.3054872632</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363434.3054872632</v>
+        <v>363434.3054872631</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430329.4787807859</v>
+        <v>430329.4787807858</v>
       </c>
       <c r="C2" t="n">
-        <v>430330.3815869959</v>
+        <v>430330.381586996</v>
       </c>
       <c r="D2" t="n">
         <v>430330.381586996</v>
       </c>
       <c r="E2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117438</v>
       </c>
       <c r="F2" t="n">
         <v>252900.1585117437</v>
       </c>
       <c r="G2" t="n">
+        <v>252900.1585117437</v>
+      </c>
+      <c r="H2" t="n">
         <v>252900.1585117438</v>
       </c>
-      <c r="H2" t="n">
-        <v>252900.1585117436</v>
-      </c>
       <c r="I2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117438</v>
       </c>
       <c r="J2" t="n">
         <v>252900.1585117437</v>
@@ -26346,16 +26346,16 @@
         <v>252900.1585117437</v>
       </c>
       <c r="M2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117436</v>
       </c>
       <c r="N2" t="n">
         <v>252900.1585117437</v>
       </c>
       <c r="O2" t="n">
-        <v>252900.1585117436</v>
+        <v>252900.1585117438</v>
       </c>
       <c r="P2" t="n">
-        <v>252900.1585117437</v>
+        <v>252900.1585117438</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505977.6206282385</v>
+        <v>505977.6206282387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>309806.3511207717</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
-        <v>26670.97586254218</v>
+        <v>26670.97586254217</v>
       </c>
       <c r="F4" t="n">
         <v>26670.97586254219</v>
       </c>
       <c r="G4" t="n">
+        <v>26670.97586254218</v>
+      </c>
+      <c r="H4" t="n">
         <v>26670.9758625422</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26670.97586254218</v>
       </c>
       <c r="I4" t="n">
         <v>26670.97586254219</v>
@@ -26444,13 +26444,13 @@
         <v>26670.97586254219</v>
       </c>
       <c r="K4" t="n">
-        <v>26670.9758625422</v>
+        <v>26670.97586254219</v>
       </c>
       <c r="L4" t="n">
         <v>26670.97586254219</v>
       </c>
       <c r="M4" t="n">
-        <v>26670.97586254219</v>
+        <v>26670.97586254217</v>
       </c>
       <c r="N4" t="n">
         <v>26670.97586254218</v>
@@ -26459,7 +26459,7 @@
         <v>26670.97586254219</v>
       </c>
       <c r="P4" t="n">
-        <v>26670.9758625422</v>
+        <v>26670.97586254219</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>42521.11700888626</v>
       </c>
       <c r="H5" t="n">
-        <v>42521.11700888624</v>
+        <v>42521.11700888626</v>
       </c>
       <c r="I5" t="n">
         <v>42521.11700888626</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38268.01560100908</v>
+        <v>38246.34052691707</v>
       </c>
       <c r="C6" t="n">
-        <v>82338.0590469462</v>
+        <v>82316.38698220839</v>
       </c>
       <c r="D6" t="n">
-        <v>85763.46379969499</v>
+        <v>85741.79173495701</v>
       </c>
       <c r="E6" t="n">
-        <v>-322269.5549879232</v>
+        <v>-322882.6611295787</v>
       </c>
       <c r="F6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.95949866</v>
       </c>
       <c r="G6" t="n">
-        <v>183708.0656403154</v>
+        <v>183094.9594986599</v>
       </c>
       <c r="H6" t="n">
-        <v>183708.0656403152</v>
+        <v>183094.9594986599</v>
       </c>
       <c r="I6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.9594986599</v>
       </c>
       <c r="J6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.9594986598</v>
       </c>
       <c r="K6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.9594986598</v>
       </c>
       <c r="L6" t="n">
-        <v>183708.0656403152</v>
+        <v>183094.9594986598</v>
       </c>
       <c r="M6" t="n">
-        <v>52913.32178306222</v>
+        <v>52300.21564140663</v>
       </c>
       <c r="N6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.9594986599</v>
       </c>
       <c r="O6" t="n">
-        <v>183708.0656403152</v>
+        <v>183094.9594986599</v>
       </c>
       <c r="P6" t="n">
-        <v>183708.0656403153</v>
+        <v>183094.9594986599</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>486.7078459579526</v>
+        <v>486.7078459579528</v>
       </c>
       <c r="F3" t="n">
         <v>486.7078459579525</v>
       </c>
       <c r="G3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="H3" t="n">
         <v>486.7078459579525</v>
       </c>
       <c r="I3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="J3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="K3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="L3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="M3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="N3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="O3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
       <c r="P3" t="n">
-        <v>486.7078459579525</v>
+        <v>486.7078459579527</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="F4" t="n">
         <v>524.850098141495</v>
@@ -26807,7 +26807,7 @@
         <v>524.850098141495</v>
       </c>
       <c r="H4" t="n">
-        <v>524.8500981414948</v>
+        <v>524.850098141495</v>
       </c>
       <c r="I4" t="n">
         <v>524.850098141495</v>
@@ -26822,16 +26822,16 @@
         <v>524.850098141495</v>
       </c>
       <c r="M4" t="n">
-        <v>524.850098141495</v>
+        <v>524.8500981414949</v>
       </c>
       <c r="N4" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="O4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="P4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.7368979520207</v>
+        <v>434.7368979520209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.8500981414949</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.956614456112371</v>
+        <v>1.956614456112372</v>
       </c>
       <c r="H11" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I11" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927227</v>
       </c>
       <c r="J11" t="n">
         <v>166.0652061944675</v>
       </c>
       <c r="K11" t="n">
-        <v>248.8886961217042</v>
+        <v>248.8886961217043</v>
       </c>
       <c r="L11" t="n">
-        <v>308.7684357829532</v>
+        <v>308.7684357829533</v>
       </c>
       <c r="M11" t="n">
-        <v>343.5643781168416</v>
+        <v>343.5643781168417</v>
       </c>
       <c r="N11" t="n">
-        <v>349.1236089402709</v>
+        <v>349.123608940271</v>
       </c>
       <c r="O11" t="n">
-        <v>329.6675239423035</v>
+        <v>329.6675239423036</v>
       </c>
       <c r="P11" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570294</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.2923493475049</v>
+        <v>211.292349347505</v>
       </c>
       <c r="R11" t="n">
-        <v>122.9071828287688</v>
+        <v>122.9071828287689</v>
       </c>
       <c r="S11" t="n">
-        <v>44.5863519186607</v>
+        <v>44.58635191866071</v>
       </c>
       <c r="T11" t="n">
-        <v>8.565079781631907</v>
+        <v>8.56507978163191</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H12" t="n">
         <v>10.1106667622586</v>
       </c>
       <c r="I12" t="n">
-        <v>36.0439301016031</v>
+        <v>36.04393010160311</v>
       </c>
       <c r="J12" t="n">
-        <v>98.90729914887037</v>
+        <v>98.90729914887041</v>
       </c>
       <c r="K12" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L12" t="n">
-        <v>227.3063388127212</v>
+        <v>227.3063388127213</v>
       </c>
       <c r="M12" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N12" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O12" t="n">
-        <v>249.0796275441609</v>
+        <v>249.079627544161</v>
       </c>
       <c r="P12" t="n">
-        <v>199.9083603520504</v>
+        <v>199.9083603520505</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R12" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264889</v>
       </c>
       <c r="S12" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T12" t="n">
-        <v>4.219665192786399</v>
+        <v>4.2196651927864</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06887375178650276</v>
+        <v>0.06887375178650278</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8776698861536849</v>
+        <v>0.8776698861536852</v>
       </c>
       <c r="H13" t="n">
-        <v>7.80328316962095</v>
+        <v>7.803283169620952</v>
       </c>
       <c r="I13" t="n">
-        <v>26.39392712178537</v>
+        <v>26.39392712178538</v>
       </c>
       <c r="J13" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106554</v>
       </c>
       <c r="K13" t="n">
         <v>101.9692831367645</v>
       </c>
       <c r="L13" t="n">
-        <v>130.4855756196124</v>
+        <v>130.4855756196125</v>
       </c>
       <c r="M13" t="n">
-        <v>137.5787440631635</v>
+        <v>137.5787440631636</v>
       </c>
       <c r="N13" t="n">
-        <v>134.3074290329544</v>
+        <v>134.3074290329545</v>
       </c>
       <c r="O13" t="n">
         <v>124.05464899925</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1501833217147</v>
+        <v>106.1501833217148</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.49288473965085</v>
+        <v>73.49288473965086</v>
       </c>
       <c r="R13" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832842</v>
       </c>
       <c r="S13" t="n">
         <v>15.29539247051467</v>
       </c>
       <c r="T13" t="n">
-        <v>3.750044059020289</v>
+        <v>3.75004405902029</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04787290288111015</v>
+        <v>0.04787290288111016</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H17" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I17" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J17" t="n">
         <v>166.0652061944675</v>
@@ -32244,16 +32244,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M17" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N17" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O17" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P17" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q17" t="n">
         <v>211.2923493475049</v>
@@ -32262,13 +32262,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S17" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T17" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H18" t="n">
         <v>10.1106667622586</v>
@@ -32314,19 +32314,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J18" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K18" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L18" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M18" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N18" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O18" t="n">
         <v>249.0796275441609</v>
@@ -32335,19 +32335,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R18" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S18" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T18" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H19" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I19" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J19" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K19" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L19" t="n">
         <v>130.4855756196124</v>
@@ -32414,10 +32414,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R19" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S19" t="n">
         <v>15.29539247051467</v>
@@ -32426,7 +32426,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H23" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I23" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J23" t="n">
         <v>166.0652061944675</v>
@@ -32718,16 +32718,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M23" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N23" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O23" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P23" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q23" t="n">
         <v>211.2923493475049</v>
@@ -32736,13 +32736,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S23" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T23" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H24" t="n">
         <v>10.1106667622586</v>
@@ -32788,19 +32788,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J24" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K24" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L24" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M24" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N24" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O24" t="n">
         <v>249.0796275441609</v>
@@ -32809,19 +32809,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R24" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S24" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T24" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H25" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I25" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J25" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K25" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L25" t="n">
         <v>130.4855756196124</v>
@@ -32888,10 +32888,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R25" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S25" t="n">
         <v>15.29539247051467</v>
@@ -32900,7 +32900,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H26" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I26" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J26" t="n">
         <v>166.0652061944675</v>
@@ -32955,16 +32955,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M26" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N26" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O26" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P26" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q26" t="n">
         <v>211.2923493475049</v>
@@ -32973,13 +32973,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S26" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T26" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H27" t="n">
         <v>10.1106667622586</v>
@@ -33025,19 +33025,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J27" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K27" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L27" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M27" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N27" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O27" t="n">
         <v>249.0796275441609</v>
@@ -33046,19 +33046,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R27" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S27" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T27" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H28" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I28" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J28" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L28" t="n">
         <v>130.4855756196124</v>
@@ -33125,10 +33125,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R28" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S28" t="n">
         <v>15.29539247051467</v>
@@ -33137,7 +33137,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H29" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I29" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J29" t="n">
         <v>166.0652061944675</v>
@@ -33192,16 +33192,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M29" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N29" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O29" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P29" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q29" t="n">
         <v>211.2923493475049</v>
@@ -33210,13 +33210,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S29" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T29" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H30" t="n">
         <v>10.1106667622586</v>
@@ -33262,19 +33262,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J30" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K30" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L30" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M30" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N30" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O30" t="n">
         <v>249.0796275441609</v>
@@ -33283,19 +33283,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R30" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S30" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T30" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H31" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I31" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J31" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L31" t="n">
         <v>130.4855756196124</v>
@@ -33362,10 +33362,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R31" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S31" t="n">
         <v>15.29539247051467</v>
@@ -33374,7 +33374,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H32" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I32" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J32" t="n">
         <v>166.0652061944675</v>
@@ -33429,16 +33429,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M32" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N32" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O32" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P32" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q32" t="n">
         <v>211.2923493475049</v>
@@ -33447,13 +33447,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S32" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T32" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H33" t="n">
         <v>10.1106667622586</v>
@@ -33499,19 +33499,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J33" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K33" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L33" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M33" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N33" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O33" t="n">
         <v>249.0796275441609</v>
@@ -33520,19 +33520,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R33" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S33" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T33" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H34" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I34" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J34" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L34" t="n">
         <v>130.4855756196124</v>
@@ -33599,10 +33599,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R34" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S34" t="n">
         <v>15.29539247051467</v>
@@ -33611,7 +33611,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H35" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I35" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J35" t="n">
         <v>166.0652061944675</v>
@@ -33666,16 +33666,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M35" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N35" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O35" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P35" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q35" t="n">
         <v>211.2923493475049</v>
@@ -33684,13 +33684,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S35" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T35" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H36" t="n">
         <v>10.1106667622586</v>
@@ -33736,19 +33736,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J36" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K36" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L36" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M36" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N36" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O36" t="n">
         <v>249.0796275441609</v>
@@ -33757,19 +33757,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R36" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S36" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T36" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H37" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I37" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J37" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K37" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L37" t="n">
         <v>130.4855756196124</v>
@@ -33836,10 +33836,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R37" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S37" t="n">
         <v>15.29539247051467</v>
@@ -33848,7 +33848,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H38" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I38" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J38" t="n">
         <v>166.0652061944675</v>
@@ -33903,16 +33903,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M38" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N38" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O38" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P38" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q38" t="n">
         <v>211.2923493475049</v>
@@ -33921,13 +33921,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S38" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T38" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H39" t="n">
         <v>10.1106667622586</v>
@@ -33973,19 +33973,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J39" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K39" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L39" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M39" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N39" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O39" t="n">
         <v>249.0796275441609</v>
@@ -33994,19 +33994,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R39" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S39" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T39" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H40" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I40" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J40" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K40" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L40" t="n">
         <v>130.4855756196124</v>
@@ -34073,10 +34073,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R40" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S40" t="n">
         <v>15.29539247051467</v>
@@ -34085,7 +34085,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H41" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I41" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J41" t="n">
         <v>166.0652061944675</v>
@@ -34140,16 +34140,16 @@
         <v>308.7684357829532</v>
       </c>
       <c r="M41" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N41" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O41" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P41" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q41" t="n">
         <v>211.2923493475049</v>
@@ -34158,13 +34158,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S41" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T41" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H42" t="n">
         <v>10.1106667622586</v>
@@ -34210,19 +34210,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J42" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K42" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L42" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M42" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N42" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O42" t="n">
         <v>249.0796275441609</v>
@@ -34231,19 +34231,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R42" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S42" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T42" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H43" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I43" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J43" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K43" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L43" t="n">
         <v>130.4855756196124</v>
@@ -34310,10 +34310,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R43" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S43" t="n">
         <v>15.29539247051467</v>
@@ -34322,7 +34322,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>1.956614456112371</v>
       </c>
       <c r="H44" t="n">
-        <v>20.03817779866082</v>
+        <v>20.03817779866083</v>
       </c>
       <c r="I44" t="n">
-        <v>75.43237881927224</v>
+        <v>75.43237881927226</v>
       </c>
       <c r="J44" t="n">
         <v>166.0652061944675</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8886961217048</v>
+        <v>248.8886961217042</v>
       </c>
       <c r="L44" t="n">
         <v>308.7684357829532</v>
       </c>
       <c r="M44" t="n">
-        <v>343.5643781168415</v>
+        <v>343.5643781168416</v>
       </c>
       <c r="N44" t="n">
         <v>349.1236089402709</v>
       </c>
       <c r="O44" t="n">
-        <v>329.6675239423034</v>
+        <v>329.6675239423035</v>
       </c>
       <c r="P44" t="n">
-        <v>281.3636045570292</v>
+        <v>281.3636045570293</v>
       </c>
       <c r="Q44" t="n">
         <v>211.2923493475049</v>
@@ -34395,13 +34395,13 @@
         <v>122.9071828287688</v>
       </c>
       <c r="S44" t="n">
-        <v>44.58635191866069</v>
+        <v>44.5863519186607</v>
       </c>
       <c r="T44" t="n">
-        <v>8.565079781631907</v>
+        <v>8.565079781631908</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1565291564889896</v>
+        <v>0.1565291564889897</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.046881027154841</v>
+        <v>1.046881027154842</v>
       </c>
       <c r="H45" t="n">
         <v>10.1106667622586</v>
@@ -34447,19 +34447,19 @@
         <v>36.0439301016031</v>
       </c>
       <c r="J45" t="n">
-        <v>98.90729914887035</v>
+        <v>98.90729914887038</v>
       </c>
       <c r="K45" t="n">
-        <v>169.0483279682447</v>
+        <v>169.0483279682448</v>
       </c>
       <c r="L45" t="n">
         <v>227.3063388127212</v>
       </c>
       <c r="M45" t="n">
-        <v>265.2557760470841</v>
+        <v>265.2557760470842</v>
       </c>
       <c r="N45" t="n">
-        <v>272.276307145855</v>
+        <v>272.2763071458551</v>
       </c>
       <c r="O45" t="n">
         <v>249.0796275441609</v>
@@ -34468,19 +34468,19 @@
         <v>199.9083603520504</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.633444799625</v>
+        <v>133.6334447996251</v>
       </c>
       <c r="R45" t="n">
-        <v>64.99845535264886</v>
+        <v>64.99845535264888</v>
       </c>
       <c r="S45" t="n">
-        <v>19.44535592105592</v>
+        <v>19.44535592105593</v>
       </c>
       <c r="T45" t="n">
-        <v>4.219665192786398</v>
+        <v>4.219665192786399</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06887375178650275</v>
+        <v>0.06887375178650276</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8776698861536848</v>
+        <v>0.877669886153685</v>
       </c>
       <c r="H46" t="n">
-        <v>7.803283169620949</v>
+        <v>7.803283169620951</v>
       </c>
       <c r="I46" t="n">
         <v>26.39392712178537</v>
       </c>
       <c r="J46" t="n">
-        <v>62.05126095106552</v>
+        <v>62.05126095106553</v>
       </c>
       <c r="K46" t="n">
-        <v>101.9692831367644</v>
+        <v>101.9692831367645</v>
       </c>
       <c r="L46" t="n">
         <v>130.4855756196124</v>
@@ -34547,10 +34547,10 @@
         <v>106.1501833217147</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.49288473965083</v>
+        <v>73.49288473965085</v>
       </c>
       <c r="R46" t="n">
-        <v>39.4632296083284</v>
+        <v>39.46322960832841</v>
       </c>
       <c r="S46" t="n">
         <v>15.29539247051467</v>
@@ -34559,7 +34559,7 @@
         <v>3.750044059020289</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04787290288111014</v>
+        <v>0.04787290288111015</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530877</v>
       </c>
       <c r="J11" t="n">
         <v>136.645246708881</v>
@@ -35415,25 +35415,25 @@
         <v>213.1240953268949</v>
       </c>
       <c r="L11" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503304</v>
       </c>
       <c r="M11" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174099</v>
       </c>
       <c r="N11" t="n">
-        <v>311.8439861058249</v>
+        <v>311.843986105825</v>
       </c>
       <c r="O11" t="n">
-        <v>292.2765645862794</v>
+        <v>292.2765645862795</v>
       </c>
       <c r="P11" t="n">
-        <v>243.7882427467979</v>
+        <v>243.7882427467981</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.1676747429069</v>
+        <v>175.167674742907</v>
       </c>
       <c r="R11" t="n">
-        <v>87.87453293397235</v>
+        <v>87.8745329339724</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.8715433516031</v>
+        <v>19.87154335160311</v>
       </c>
       <c r="J12" t="n">
-        <v>78.29618481553703</v>
+        <v>370.6959588437232</v>
       </c>
       <c r="K12" t="n">
-        <v>146.6490941349114</v>
+        <v>146.6490941349115</v>
       </c>
       <c r="L12" t="n">
-        <v>204.7912520984916</v>
+        <v>204.7912520984917</v>
       </c>
       <c r="M12" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347563</v>
       </c>
       <c r="N12" t="n">
-        <v>250.9332789323134</v>
+        <v>250.9332789323135</v>
       </c>
       <c r="O12" t="n">
-        <v>518.3075118501254</v>
+        <v>225.9077378219388</v>
       </c>
       <c r="P12" t="n">
         <v>178.1375191472218</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R12" t="n">
-        <v>41.32553595850472</v>
+        <v>41.32553595850474</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K13" t="n">
-        <v>81.00462868405246</v>
+        <v>81.00462868405251</v>
       </c>
       <c r="L13" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M13" t="n">
-        <v>247.0628469517048</v>
+        <v>256.9811214080894</v>
       </c>
       <c r="N13" t="n">
-        <v>515.6119854733946</v>
+        <v>515.6119854733947</v>
       </c>
       <c r="O13" t="n">
         <v>483.0729607969905</v>
       </c>
       <c r="P13" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372828</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486592</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.56579167929182</v>
+        <v>19.87154335160309</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29618481553702</v>
+        <v>370.6959588437238</v>
       </c>
       <c r="K15" t="n">
         <v>146.6490941349114</v>
@@ -35740,7 +35740,7 @@
         <v>250.9332789323134</v>
       </c>
       <c r="O15" t="n">
-        <v>388.0925561639462</v>
+        <v>225.9077378219386</v>
       </c>
       <c r="P15" t="n">
         <v>178.1375191472217</v>
@@ -35749,7 +35749,7 @@
         <v>110.8864065106465</v>
       </c>
       <c r="R15" t="n">
-        <v>147.8462433169954</v>
+        <v>41.32553595850472</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.1233096623362</v>
+        <v>41.41450496716365</v>
       </c>
       <c r="K16" t="n">
-        <v>330.7850419305394</v>
+        <v>81.00462868405245</v>
       </c>
       <c r="L16" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M16" t="n">
-        <v>524.850098141495</v>
+        <v>115.0033041716777</v>
       </c>
       <c r="N16" t="n">
-        <v>113.558528057354</v>
+        <v>420.3832492501231</v>
       </c>
       <c r="O16" t="n">
-        <v>431.7524716855201</v>
+        <v>483.0729607969904</v>
       </c>
       <c r="P16" t="n">
         <v>399.6847408185844</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J17" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K17" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L17" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M17" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N17" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O17" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P17" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q17" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R17" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.56579167929182</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J18" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K18" t="n">
-        <v>415.3546198354094</v>
+        <v>146.6490941349114</v>
       </c>
       <c r="L18" t="n">
         <v>204.7912520984916</v>
       </c>
       <c r="M18" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N18" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O18" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R18" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K19" t="n">
-        <v>81.00462868405245</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L19" t="n">
-        <v>488.7576173311485</v>
+        <v>108.5668157239112</v>
       </c>
       <c r="M19" t="n">
-        <v>115.0033041716777</v>
+        <v>452.9936509101487</v>
       </c>
       <c r="N19" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O19" t="n">
-        <v>234.9417019697808</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P19" t="n">
         <v>399.6847408185844</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929182</v>
       </c>
       <c r="J21" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575445</v>
       </c>
       <c r="K21" t="n">
         <v>146.6490941349114</v>
       </c>
       <c r="L21" t="n">
-        <v>497.1910261266783</v>
+        <v>204.7912520984916</v>
       </c>
       <c r="M21" t="n">
         <v>242.1589955347561</v>
@@ -36223,7 +36223,7 @@
         <v>110.8864065106465</v>
       </c>
       <c r="R21" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>330.7850419305394</v>
       </c>
       <c r="L22" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311485</v>
       </c>
       <c r="M22" t="n">
         <v>115.0033041716777</v>
       </c>
       <c r="N22" t="n">
-        <v>319.182310311762</v>
+        <v>407.80938946332</v>
       </c>
       <c r="O22" t="n">
         <v>483.0729607969904</v>
       </c>
       <c r="P22" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372822</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.7758445788043</v>
+        <v>48.87332197486589</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J23" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K23" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L23" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M23" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N23" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O23" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P23" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q23" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R23" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J24" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K24" t="n">
         <v>146.6490941349114</v>
@@ -36445,22 +36445,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M24" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N24" t="n">
-        <v>524.850098141495</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O24" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P24" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R24" t="n">
-        <v>59.80849077750992</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.41450496716365</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K25" t="n">
-        <v>214.3908691530076</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L25" t="n">
-        <v>488.7576173311485</v>
+        <v>299.597445292916</v>
       </c>
       <c r="M25" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N25" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O25" t="n">
-        <v>101.5554615008255</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P25" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J26" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K26" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L26" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M26" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N26" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O26" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P26" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q26" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R26" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J27" t="n">
-        <v>88.00485623698489</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K27" t="n">
         <v>146.6490941349114</v>
@@ -36682,22 +36682,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M27" t="n">
-        <v>524.850098141495</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N27" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O27" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P27" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R27" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.41450496716365</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K28" t="n">
-        <v>206.597532599231</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L28" t="n">
-        <v>488.7576173311485</v>
+        <v>299.597445292916</v>
       </c>
       <c r="M28" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="N28" t="n">
-        <v>113.558528057354</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O28" t="n">
-        <v>101.5554615008255</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P28" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J29" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K29" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L29" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M29" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N29" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O29" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P29" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q29" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R29" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J30" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K30" t="n">
         <v>146.6490941349114</v>
@@ -36919,22 +36919,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M30" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N30" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O30" t="n">
-        <v>518.3075118501255</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P30" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R30" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K31" t="n">
-        <v>81.00462868405245</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L31" t="n">
-        <v>488.7576173311485</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M31" t="n">
-        <v>182.7874034993244</v>
+        <v>235.8156848538297</v>
       </c>
       <c r="N31" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O31" t="n">
-        <v>483.0729607969904</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P31" t="n">
-        <v>83.76938266372822</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q31" t="n">
         <v>201.7758445788043</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J32" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K32" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L32" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M32" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N32" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O32" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P32" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q32" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R32" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J33" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K33" t="n">
         <v>146.6490941349114</v>
@@ -37156,22 +37156,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M33" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N33" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O33" t="n">
-        <v>518.3075118501255</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P33" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R33" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K34" t="n">
-        <v>81.00462868405245</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L34" t="n">
-        <v>232.8330219501623</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M34" t="n">
         <v>524.850098141495</v>
       </c>
       <c r="N34" t="n">
-        <v>113.558528057354</v>
+        <v>379.4800947896675</v>
       </c>
       <c r="O34" t="n">
-        <v>483.0729607969904</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P34" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J35" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K35" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L35" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M35" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N35" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O35" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P35" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q35" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R35" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.56579167929182</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J36" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K36" t="n">
         <v>146.6490941349114</v>
@@ -37393,22 +37393,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M36" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N36" t="n">
-        <v>519.6388046328113</v>
+        <v>250.9332789323134</v>
       </c>
       <c r="O36" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P36" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R36" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K37" t="n">
-        <v>81.00462868405245</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L37" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M37" t="n">
-        <v>399.9653695556436</v>
+        <v>524.8500981414949</v>
       </c>
       <c r="N37" t="n">
         <v>515.6119854733946</v>
       </c>
       <c r="O37" t="n">
-        <v>483.0729607969904</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P37" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.87332197486589</v>
+        <v>162.5218445376251</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J38" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K38" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L38" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M38" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N38" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O38" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P38" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q38" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R38" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J39" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K39" t="n">
         <v>146.6490941349114</v>
@@ -37630,22 +37630,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M39" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N39" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O39" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P39" t="n">
-        <v>470.5372931754085</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R39" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.41450496716365</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K40" t="n">
-        <v>81.00462868405245</v>
+        <v>330.7850419305394</v>
       </c>
       <c r="L40" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M40" t="n">
-        <v>399.9653695556436</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N40" t="n">
-        <v>515.6119854733946</v>
+        <v>113.5585280573541</v>
       </c>
       <c r="O40" t="n">
-        <v>483.0729607969904</v>
+        <v>101.5554615008256</v>
       </c>
       <c r="P40" t="n">
-        <v>399.6847408185844</v>
+        <v>349.6909493960416</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.87332197486589</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J41" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K41" t="n">
-        <v>213.1240953268948</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L41" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M41" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N41" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O41" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P41" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q41" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R41" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29618481553702</v>
+        <v>78.29618481553705</v>
       </c>
       <c r="K42" t="n">
         <v>146.6490941349114</v>
@@ -37867,22 +37867,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M42" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N42" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O42" t="n">
-        <v>225.9077378219386</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P42" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q42" t="n">
-        <v>403.2861805388333</v>
+        <v>273.0712248526538</v>
       </c>
       <c r="R42" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.1233096623362</v>
+        <v>120.1233096623363</v>
       </c>
       <c r="K43" t="n">
-        <v>330.7850419305394</v>
+        <v>222.9824459204646</v>
       </c>
       <c r="L43" t="n">
-        <v>108.5668157239112</v>
+        <v>488.7576173311486</v>
       </c>
       <c r="M43" t="n">
         <v>115.0033041716777</v>
@@ -37952,13 +37952,13 @@
         <v>515.6119854733946</v>
       </c>
       <c r="O43" t="n">
-        <v>286.6432856353583</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P43" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.88447627530874</v>
+        <v>40.88447627530876</v>
       </c>
       <c r="J44" t="n">
-        <v>136.6452467088809</v>
+        <v>136.645246708881</v>
       </c>
       <c r="K44" t="n">
-        <v>213.1240953268954</v>
+        <v>213.1240953268949</v>
       </c>
       <c r="L44" t="n">
-        <v>270.4563933503302</v>
+        <v>270.4563933503303</v>
       </c>
       <c r="M44" t="n">
-        <v>306.1331152174097</v>
+        <v>306.1331152174098</v>
       </c>
       <c r="N44" t="n">
         <v>311.8439861058249</v>
       </c>
       <c r="O44" t="n">
-        <v>292.2765645862793</v>
+        <v>292.2765645862794</v>
       </c>
       <c r="P44" t="n">
-        <v>243.7882427467979</v>
+        <v>243.788242746798</v>
       </c>
       <c r="Q44" t="n">
         <v>175.1676747429069</v>
       </c>
       <c r="R44" t="n">
-        <v>87.87453293397235</v>
+        <v>87.87453293397238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.87154335160309</v>
+        <v>43.56579167929183</v>
       </c>
       <c r="J45" t="n">
-        <v>78.29618481553702</v>
+        <v>240.4810031575443</v>
       </c>
       <c r="K45" t="n">
         <v>146.6490941349114</v>
@@ -38104,22 +38104,22 @@
         <v>204.7912520984916</v>
       </c>
       <c r="M45" t="n">
-        <v>242.1589955347561</v>
+        <v>242.1589955347562</v>
       </c>
       <c r="N45" t="n">
         <v>250.9332789323134</v>
       </c>
       <c r="O45" t="n">
-        <v>518.3075118501257</v>
+        <v>225.9077378219387</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1375191472217</v>
+        <v>178.1375191472218</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.8864065106465</v>
+        <v>110.8864065106466</v>
       </c>
       <c r="R45" t="n">
-        <v>41.32553595850472</v>
+        <v>147.8462433169954</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.41450496716365</v>
+        <v>41.41450496716367</v>
       </c>
       <c r="K46" t="n">
-        <v>234.9268272728831</v>
+        <v>81.00462868405248</v>
       </c>
       <c r="L46" t="n">
-        <v>488.7576173311485</v>
+        <v>299.597445292916</v>
       </c>
       <c r="M46" t="n">
-        <v>115.0033041716777</v>
+        <v>524.850098141495</v>
       </c>
       <c r="N46" t="n">
-        <v>113.558528057354</v>
+        <v>515.6119854733946</v>
       </c>
       <c r="O46" t="n">
-        <v>483.0729607969904</v>
+        <v>483.0729607969905</v>
       </c>
       <c r="P46" t="n">
-        <v>399.6847408185844</v>
+        <v>83.76938266372825</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.7758445788043</v>
+        <v>48.8733219748659</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
